--- a/ahci usability data.xlsx
+++ b/ahci usability data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://autuni-my.sharepoint.com/personal/kdp0465_autuni_ac_nz/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chadly\Documents\GitHub\AHCIWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1A4CE58-C6E5-45F4-8342-77B9760B3E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2E50B1-FCCB-4744-8474-91A3A92C68AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{B45BFF76-2DF0-4686-88CC-FEE0C148E402}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
-  <si>
-    <t>KeyboardKeyboard</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Surface</t>
   </si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>Speed</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
   </si>
 </sst>
 </file>
@@ -105,6 +105,2158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$15:$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Keyboard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Speed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$17:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>69.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C702-4F2A-A10D-2A205559FD23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$15:$Q$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Surface</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Speed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$17:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C702-4F2A-A10D-2A205559FD23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1832871120"/>
+        <c:axId val="1691176592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1832871120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1691176592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1691176592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Words</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> per Minute</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1832871120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Keyboard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.88929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92310000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9677</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93019999999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88890000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8170-434C-A982-F2BA5F1C6D5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$15:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Surface</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.8619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83420000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0%">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94489999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9677</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84810000000000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82469999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8170-434C-A982-F2BA5F1C6D5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1896774944"/>
+        <c:axId val="1890645488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1896774944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1890645488"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1890645488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.75000000000000011"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> Percentage</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1896774944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FBA110-440F-4EC3-B676-D8D44F4413BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323CEA48-D161-42C2-9430-007C0BA7AE40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,209 +2556,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413E9C79-A7FF-48C4-9F3C-4D2145E4529E}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="C15:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="P16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C17" s="2">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.8619</v>
+      </c>
+      <c r="P17">
+        <v>69.72</v>
+      </c>
+      <c r="Q17">
+        <v>35.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>0.88929999999999998</v>
-      </c>
-      <c r="B3">
-        <v>69.72</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.8619</v>
-      </c>
-      <c r="D3">
-        <v>35.6</v>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C18" s="2">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="P18">
+        <v>53.62</v>
+      </c>
+      <c r="Q18">
+        <v>22.92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>0.85019999999999996</v>
-      </c>
-      <c r="B4">
-        <v>53.62</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.83420000000000005</v>
-      </c>
-      <c r="D4">
-        <v>22.92</v>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C19" s="2">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="P19">
+        <v>51.44</v>
+      </c>
+      <c r="Q19">
+        <v>34.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C20" s="2">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="P20">
+        <v>48.67</v>
+      </c>
+      <c r="Q20">
+        <v>32.46</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C21" s="2">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.9163</v>
+      </c>
+      <c r="P21">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="Q21">
+        <v>24.66</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C22" s="2">
+        <v>0.9677</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.9677</v>
+      </c>
+      <c r="P22">
+        <v>84.18</v>
+      </c>
+      <c r="Q22">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C23" s="2">
+        <v>0.86739999999999995</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="P23">
+        <v>28.18</v>
+      </c>
+      <c r="Q23">
+        <v>30.91</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C24" s="2">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="P24">
+        <v>41.92</v>
+      </c>
+      <c r="Q24">
+        <v>26.95</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C25" s="2">
         <v>0.90910000000000002</v>
       </c>
-      <c r="B5">
-        <v>51.44</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="D5">
-        <v>34.9</v>
+      <c r="D25" s="2">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="P25">
+        <v>28.96</v>
+      </c>
+      <c r="Q25">
+        <v>25.94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>0.98360000000000003</v>
-      </c>
-      <c r="B6">
-        <v>48.67</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.94489999999999996</v>
-      </c>
-      <c r="D6">
-        <v>32.46</v>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C26" s="2">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="P26">
+        <v>48.27</v>
+      </c>
+      <c r="Q26">
+        <v>5.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="B7">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.9163</v>
-      </c>
-      <c r="D7">
-        <v>24.66</v>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C27" s="2">
+        <v>0.93019999999999992</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.84810000000000008</v>
+      </c>
+      <c r="P27">
+        <v>44.47</v>
+      </c>
+      <c r="Q27">
+        <v>25.21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>0.9677</v>
-      </c>
-      <c r="B8">
-        <v>84.18</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.9677</v>
-      </c>
-      <c r="D8">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>0.86739999999999995</v>
-      </c>
-      <c r="B9">
-        <v>28.18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="D9">
-        <v>30.91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>0.87909999999999999</v>
-      </c>
-      <c r="B10">
-        <v>41.92</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.85709999999999997</v>
-      </c>
-      <c r="D10">
-        <v>26.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>0.90910000000000002</v>
-      </c>
-      <c r="B11">
-        <v>28.96</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.93020000000000003</v>
-      </c>
-      <c r="D11">
-        <v>25.94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>0.83150000000000002</v>
-      </c>
-      <c r="B12">
-        <v>48.27</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.45319999999999999</v>
-      </c>
-      <c r="D12">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>0.93019999999999992</v>
-      </c>
-      <c r="B13">
-        <v>44.47</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.84810000000000008</v>
-      </c>
-      <c r="D13">
-        <v>25.21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C28" s="2">
         <v>0.88890000000000002</v>
       </c>
-      <c r="B14">
+      <c r="D28" s="2">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="P28">
         <v>50.02</v>
       </c>
-      <c r="C14" s="2">
-        <v>0.82469999999999999</v>
-      </c>
-      <c r="D14">
+      <c r="Q28">
         <v>34.85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>